--- a/Proyecto 1/Base de conocimiento.xlsx
+++ b/Proyecto 1/Base de conocimiento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jp_gm\Escritorio\PRIMER SEMESTRE 2022\IA\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jp_gm\Escritorio\PRIMER SEMESTRE 2022\IA\IA\Laboratorio_IA\Proyecto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CEE4CA-B8B9-408E-97A6-3401F50791F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337902A2-C0A5-4695-967E-157E360F7668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{EB006548-C89C-4332-8526-5EB2DF5351D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{EB006548-C89C-4332-8526-5EB2DF5351D6}"/>
   </bookViews>
   <sheets>
     <sheet name="cliente" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="registro" sheetId="4" r:id="rId4"/>
     <sheet name="trabajador" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">departamento!$A$1:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">hotel!$A$1:$H$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2067,10 +2071,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F61EF10-330E-48DB-BA38-0960F039F5AF}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2105,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2150,7 +2155,7 @@
         <v>departamento(2,izabal,5,español,calor).</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2175,7 +2180,7 @@
         <v>departamento(3,alta verapaz,6,español,frio).</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>departamento(4,quiche,5,katchikel,frio).</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2300,7 +2305,7 @@
         <v>departamento(8,jutiapa,4,katchikel,calor).</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2375,7 +2380,7 @@
         <v>departamento(11,zacapa,3,ingles,calor).</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2425,7 +2430,7 @@
         <v>departamento(13,chiquimula,4,katchikel,calor).</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2500,7 +2505,7 @@
         <v>departamento(16,chimaltenango,3,katchikel,calor).</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2575,7 +2580,7 @@
         <v>departamento(19,retalhuleu,4,ingles,calor).</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2600,7 +2605,7 @@
         <v>departamento(20,solola,6,ketchi,frio).</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2625,7 +2630,7 @@
         <v>departamento(21,totonicapan,5,ingles,templado).</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2651,6 +2656,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E23" xr:uid="{6F61EF10-330E-48DB-BA38-0960F039F5AF}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="calor"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2660,7 +2672,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3750,6 +3762,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H32" xr:uid="{93C1596B-6668-4831-896B-B22AD06D81DC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Proyecto 1/Base de conocimiento.xlsx
+++ b/Proyecto 1/Base de conocimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jp_gm\Escritorio\PRIMER SEMESTRE 2022\IA\IA\Laboratorio_IA\Proyecto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337902A2-C0A5-4695-967E-157E360F7668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7495622-979A-4E3E-9FB7-23060AA419D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{EB006548-C89C-4332-8526-5EB2DF5351D6}"/>
   </bookViews>
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2105,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>departamento(1,peten,8,español,tropical).</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>departamento(5,huehuetenango,7,español,frio).</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>departamento(6,escuintla,2,español,calor).</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>departamento(7,san marcos,3,ingles,calor).</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>departamento(9,baja verapaz,5,ingles,templado).</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>departamento(10,santa rosa,4,ingles,calor).</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>departamento(12,suchitepequez,5,español,templado).</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>departamento(14,guatemala,0,ingles,templado).</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>departamento(15,jalapa,4,ingles,calor).</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>departamento(17,quetzaltenango,3,ingles,frio).</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>departamento(18,el progreso,4,katchikel,calor).</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2659,7 +2659,7 @@
   <autoFilter ref="A1:E23" xr:uid="{6F61EF10-330E-48DB-BA38-0960F039F5AF}">
     <filterColumn colId="4">
       <filters>
-        <filter val="calor"/>
+        <filter val="tropical"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2672,11 +2672,12 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3772,7 +3773,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I44"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Proyecto 1/Base de conocimiento.xlsx
+++ b/Proyecto 1/Base de conocimiento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jp_gm\Escritorio\PRIMER SEMESTRE 2022\IA\IA\Laboratorio_IA\Proyecto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7495622-979A-4E3E-9FB7-23060AA419D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FAF3F0-9296-48AC-BA10-871528768258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{EB006548-C89C-4332-8526-5EB2DF5351D6}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{EB006548-C89C-4332-8526-5EB2DF5351D6}"/>
   </bookViews>
   <sheets>
     <sheet name="cliente" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">departamento!$A$1:$E$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">hotel!$A$1:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">hotel!$A$1:$I$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,11 +2071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F61EF10-330E-48DB-BA38-0960F039F5AF}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2129,7 @@
         <v>departamento(1,peten,8,español,tropical).</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>departamento(2,izabal,5,español,calor).</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2180,7 +2179,7 @@
         <v>departamento(3,alta verapaz,6,español,frio).</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>departamento(4,quiche,5,katchikel,frio).</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>departamento(5,huehuetenango,7,español,frio).</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2255,7 +2254,7 @@
         <v>departamento(6,escuintla,2,español,calor).</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2280,7 +2279,7 @@
         <v>departamento(7,san marcos,3,ingles,calor).</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>departamento(8,jutiapa,4,katchikel,calor).</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>departamento(9,baja verapaz,5,ingles,templado).</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>departamento(10,santa rosa,4,ingles,calor).</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>departamento(11,zacapa,3,ingles,calor).</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>departamento(12,suchitepequez,5,español,templado).</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>departamento(13,chiquimula,4,katchikel,calor).</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>departamento(14,guatemala,0,ingles,templado).</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>departamento(15,jalapa,4,ingles,calor).</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>departamento(16,chimaltenango,3,katchikel,calor).</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>departamento(17,quetzaltenango,3,ingles,frio).</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2555,7 +2554,7 @@
         <v>departamento(18,el progreso,4,katchikel,calor).</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>departamento(19,retalhuleu,4,ingles,calor).</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2605,7 +2604,7 @@
         <v>departamento(20,solola,6,ketchi,frio).</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>departamento(21,totonicapan,5,ingles,templado).</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2656,23 +2655,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E23" xr:uid="{6F61EF10-330E-48DB-BA38-0960F039F5AF}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="tropical"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E23" xr:uid="{6F61EF10-330E-48DB-BA38-0960F039F5AF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C1596B-6668-4831-896B-B22AD06D81DC}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2708,72 +2702,80 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" s="9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+      <c r="F2" s="10">
+        <v>350</v>
+      </c>
+      <c r="G2" s="10">
+        <v>80</v>
+      </c>
+      <c r="H2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="10">
-        <v>100</v>
-      </c>
-      <c r="F2" s="10">
-        <v>200</v>
-      </c>
-      <c r="G2" s="10">
-        <v>50</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1</v>
+      <c r="I2" t="str">
+        <f>VLOOKUP(H2,departamento!A:E,5,FALSE)</f>
+        <v>frio</v>
       </c>
       <c r="J2" t="str">
         <f>_xlfn.CONCAT("hotel(",A2,",",B2,",",C2,",",D2,",",E2,",",F2,",",G2,",",H2,").")</f>
-        <v>hotel(1,Camino Real,0,4,100,200,50,1).</v>
+        <v>hotel(4,Onetwo,288,3,200,350,80,4).</v>
       </c>
       <c r="K2" t="str">
         <f>LOWER(J2)</f>
-        <v>hotel(1,camino real,0,4,100,200,50,1).</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>hotel(4,onetwo,288,3,200,350,80,4).</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C3" s="9">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="D3" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="10">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F3" s="10">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="G3" s="10">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H3" s="8">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="I3" t="str">
+        <f>VLOOKUP(H3,departamento!A:E,5,FALSE)</f>
+        <v>frio</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J32" si="0">_xlfn.CONCAT("hotel(",A3,",",B3,",",C3,",",D3,",",E3,",",F3,",",G3,",",H3,").")</f>
-        <v>hotel(2,Holiday Inn,0,4,200,350,75,2).</v>
+        <v>hotel(9,Tzul,156,3,150,400,50,20).</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K32" si="1">LOWER(J3)</f>
-        <v>hotel(2,holiday inn,0,4,200,350,75,2).</v>
+        <v>hotel(9,tzul,156,3,150,400,50,20).</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2801,6 +2803,10 @@
       <c r="H4" s="8">
         <v>2</v>
       </c>
+      <c r="I4" t="str">
+        <f>VLOOKUP(H4,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
+      </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>hotel(3,Hu-nal ye,260,1,50,100,60,2).</v>
@@ -2812,39 +2818,43 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C5" s="9">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
       </c>
       <c r="E5" s="10">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F5" s="10">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="G5" s="10">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H5" s="8">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="I5" t="str">
+        <f>VLOOKUP(H5,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(4,Onetwo,288,3,200,350,80,4).</v>
+        <v>hotel(10,Ktuz,150,3,300,600,50,18).</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(4,onetwo,288,3,200,350,80,4).</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>hotel(10,ktuz,150,3,300,600,50,18).</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2868,6 +2878,10 @@
       </c>
       <c r="H6" s="8">
         <v>3</v>
+      </c>
+      <c r="I6" t="str">
+        <f>VLOOKUP(H6,departamento!A:E,5,FALSE)</f>
+        <v>frio</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
@@ -2903,6 +2917,10 @@
       <c r="H7" s="8">
         <v>8</v>
       </c>
+      <c r="I7" t="str">
+        <f>VLOOKUP(H7,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
+      </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>hotel(6,Tikal,350,1,200,350,100,8).</v>
@@ -2914,175 +2932,195 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="9">
+        <v>67</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10">
+        <v>300</v>
+      </c>
+      <c r="F8" s="10">
+        <v>500</v>
+      </c>
+      <c r="G8" s="10">
+        <v>150</v>
+      </c>
+      <c r="H8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="9">
-        <v>102</v>
-      </c>
-      <c r="D8" s="8">
-        <v>5</v>
-      </c>
-      <c r="E8" s="10">
-        <v>350</v>
-      </c>
-      <c r="F8" s="10">
-        <v>700</v>
-      </c>
-      <c r="G8" s="10">
-        <v>100</v>
-      </c>
-      <c r="H8" s="8">
-        <v>12</v>
+      <c r="I8" t="str">
+        <f>VLOOKUP(H8,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(7,Atanacio,102,5,350,700,100,12).</v>
+        <v>hotel(11,Patulul,67,3,300,500,150,7).</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(7,atanacio,102,5,350,700,100,12).</v>
+        <v>hotel(11,patulul,67,3,300,500,150,7).</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C9" s="9">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="D9" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="10">
         <v>250</v>
       </c>
       <c r="F9" s="10">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G9" s="10">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H9" s="8">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="I9" t="str">
+        <f>VLOOKUP(H9,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(8,Pana Inn,80,4,250,500,50,16).</v>
+        <v>hotel(14,Kenel,180,3,250,400,70,8).</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(8,pana inn,80,4,250,500,50,16).</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>hotel(14,kenel,180,3,250,400,70,8).</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C10" s="9">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
       </c>
       <c r="E10" s="10">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F10" s="10">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G10" s="10">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H10" s="8">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I10" t="str">
+        <f>VLOOKUP(H10,departamento!A:E,5,FALSE)</f>
+        <v>templado</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(9,Tzul,156,3,150,400,50,20).</v>
+        <v>hotel(19,Runners,187,3,200,350,35,22).</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(9,tzul,156,3,150,400,50,20).</v>
+        <v>hotel(19,runners,187,3,200,350,35,22).</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C11" s="9">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="D11" s="8">
         <v>3</v>
       </c>
       <c r="E11" s="10">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="F11" s="10">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G11" s="10">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H11" s="8">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="I11" t="str">
+        <f>VLOOKUP(H11,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(10,Ktuz,150,3,300,600,50,18).</v>
+        <v>hotel(21,Las Palmas,650,3,450,700,150,11).</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(10,ktuz,150,3,300,600,50,18).</v>
+        <v>hotel(21,las palmas,650,3,450,700,150,11).</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C12" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D12" s="8">
         <v>3</v>
       </c>
       <c r="E12" s="10">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F12" s="10">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G12" s="10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H12" s="8">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I12" t="str">
+        <f>VLOOKUP(H12,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(11,Patulul,67,3,300,500,150,7).</v>
+        <v>hotel(25,Los Pulpos,70,3,500,700,100,6).</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(11,patulul,67,3,300,500,150,7).</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>hotel(25,los pulpos,70,3,500,700,100,6).</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -3106,6 +3144,10 @@
       </c>
       <c r="H13" s="8">
         <v>17</v>
+      </c>
+      <c r="I13" t="str">
+        <f>VLOOKUP(H13,departamento!A:E,5,FALSE)</f>
+        <v>frio</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
@@ -3141,6 +3183,10 @@
       <c r="H14" s="8">
         <v>7</v>
       </c>
+      <c r="I14" t="str">
+        <f>VLOOKUP(H14,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
+      </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>hotel(13,Libfresh,100,2,250,400,50,7).</v>
@@ -3150,38 +3196,42 @@
         <v>hotel(13,libfresh,100,2,250,400,50,7).</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C15" s="9">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D15" s="8">
         <v>3</v>
       </c>
       <c r="E15" s="10">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F15" s="10">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G15" s="10">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H15" s="8">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="I15" t="str">
+        <f>VLOOKUP(H15,departamento!A:E,5,FALSE)</f>
+        <v>frio</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(14,Kenel,180,3,250,400,70,8).</v>
+        <v>hotel(29,Renuevate,90,3,280,600,65,20).</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(14,kenel,180,3,250,400,70,8).</v>
+        <v>hotel(29,renuevate,90,3,280,600,65,20).</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3209,6 +3259,10 @@
       <c r="H16" s="8">
         <v>10</v>
       </c>
+      <c r="I16" t="str">
+        <f>VLOOKUP(H16,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
+      </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>hotel(15,Manoi,40,1,250,400,40,10).</v>
@@ -3243,6 +3297,10 @@
       <c r="H17" s="8">
         <v>15</v>
       </c>
+      <c r="I17" t="str">
+        <f>VLOOKUP(H17,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
+      </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>hotel(16,Palmeras,7,2,250,400,30,15).</v>
@@ -3252,86 +3310,94 @@
         <v>hotel(16,palmeras,7,2,250,400,30,15).</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C18" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D18" s="8">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10">
+        <v>100</v>
+      </c>
+      <c r="F18" s="10">
+        <v>50</v>
+      </c>
+      <c r="G18" s="10">
+        <v>7</v>
+      </c>
+      <c r="H18" s="8">
         <v>4</v>
       </c>
-      <c r="E18" s="10">
-        <v>250</v>
-      </c>
-      <c r="F18" s="10">
-        <v>400</v>
-      </c>
-      <c r="G18" s="10">
-        <v>70</v>
-      </c>
-      <c r="H18" s="8">
-        <v>19</v>
+      <c r="I18" t="str">
+        <f>VLOOKUP(H18,departamento!A:E,5,FALSE)</f>
+        <v>frio</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(17,Ovni,8,4,250,400,70,19).</v>
+        <v>hotel(31,Usac,0,3,100,50,7,4).</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(17,ovni,8,4,250,400,70,19).</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>hotel(31,usac,0,3,100,50,7,4).</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C19" s="9">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="D19" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="10">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F19" s="10">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G19" s="10">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H19" s="8">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="I19" t="str">
+        <f>VLOOKUP(H19,departamento!A:E,5,FALSE)</f>
+        <v>tropical</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(18,Ovni 2,270,5,250,400,95,21).</v>
+        <v>hotel(1,Camino Real,0,4,100,200,50,1).</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(18,ovni 2,270,5,250,400,95,21).</v>
+        <v>hotel(1,camino real,0,4,100,200,50,1).</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C20" s="9">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="D20" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="10">
         <v>200</v>
@@ -3340,154 +3406,174 @@
         <v>350</v>
       </c>
       <c r="G20" s="10">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H20" s="8">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="I20" t="str">
+        <f>VLOOKUP(H20,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(19,Runners,187,3,200,350,35,22).</v>
+        <v>hotel(2,Holiday Inn,0,4,200,350,75,2).</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(19,runners,187,3,200,350,35,22).</v>
+        <v>hotel(2,holiday inn,0,4,200,350,75,2).</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C21" s="9">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="D21" s="8">
         <v>4</v>
       </c>
       <c r="E21" s="10">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F21" s="10">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="G21" s="10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H21" s="8">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="I21" t="str">
+        <f>VLOOKUP(H21,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(20,Tutuc,365,4,150,280,25,14).</v>
+        <v>hotel(8,Pana Inn,80,4,250,500,50,16).</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(20,tutuc,365,4,150,280,25,14).</v>
+        <v>hotel(8,pana inn,80,4,250,500,50,16).</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C22" s="9">
-        <v>650</v>
+        <v>8</v>
       </c>
       <c r="D22" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="10">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F22" s="10">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G22" s="10">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="H22" s="8">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="I22" t="str">
+        <f>VLOOKUP(H22,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(21,Las Palmas,650,3,450,700,150,11).</v>
+        <v>hotel(17,Ovni,8,4,250,400,70,19).</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(21,las palmas,650,3,450,700,150,11).</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>hotel(17,ovni,8,4,250,400,70,19).</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C23" s="9">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D23" s="8">
         <v>4</v>
       </c>
       <c r="E23" s="10">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="F23" s="10">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="G23" s="10">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="H23" s="8">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="I23" t="str">
+        <f>VLOOKUP(H23,departamento!A:E,5,FALSE)</f>
+        <v>templado</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(22,Kinal,354,4,500,800,200,10).</v>
+        <v>hotel(20,Tutuc,365,4,150,280,25,14).</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(22,kinal,354,4,500,800,200,10).</v>
+        <v>hotel(20,tutuc,365,4,150,280,25,14).</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="9">
-        <v>269</v>
+        <v>354</v>
       </c>
       <c r="D24" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="10">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F24" s="10">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G24" s="10">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H24" s="8">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="I24" t="str">
+        <f>VLOOKUP(H24,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(23,Prank,269,5,400,700,150,13).</v>
+        <v>hotel(22,Kinal,354,4,500,800,200,10).</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(23,prank,269,5,400,700,150,13).</v>
+        <v>hotel(22,kinal,354,4,500,800,200,10).</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3515,6 +3601,10 @@
       <c r="H25" s="8">
         <v>11</v>
       </c>
+      <c r="I25" t="str">
+        <f>VLOOKUP(H25,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
+      </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
         <v>hotel(24,Doña Rosa,34,4,250,500,100,11).</v>
@@ -3524,38 +3614,42 @@
         <v>hotel(24,doña rosa,34,4,250,500,100,11).</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C26" s="9">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="D26" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="10">
+        <v>350</v>
+      </c>
+      <c r="F26" s="10">
         <v>500</v>
-      </c>
-      <c r="F26" s="10">
-        <v>700</v>
       </c>
       <c r="G26" s="10">
         <v>100</v>
       </c>
       <c r="H26" s="8">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="I26" t="str">
+        <f>VLOOKUP(H26,departamento!A:E,5,FALSE)</f>
+        <v>templado</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(25,Los Pulpos,70,3,500,700,100,6).</v>
+        <v>hotel(28,Yocute,500,4,350,500,100,9).</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(25,los pulpos,70,3,500,700,100,6).</v>
+        <v>hotel(28,yocute,500,4,350,500,100,9).</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3583,6 +3677,10 @@
       <c r="H27" s="8">
         <v>10</v>
       </c>
+      <c r="I27" t="str">
+        <f>VLOOKUP(H27,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
+      </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
         <v>hotel(26,Las Canarias,65,2,450,600,200,10).</v>
@@ -3592,7 +3690,7 @@
         <v>hotel(26,las canarias,65,2,450,600,200,10).</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -3617,6 +3715,10 @@
       <c r="H28" s="8">
         <v>12</v>
       </c>
+      <c r="I28" t="str">
+        <f>VLOOKUP(H28,departamento!A:E,5,FALSE)</f>
+        <v>templado</v>
+      </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
         <v>hotel(27,Hawaii,123,1,400,700,150,12).</v>
@@ -3626,75 +3728,83 @@
         <v>hotel(27,hawaii,123,1,400,700,150,12).</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C29" s="9">
-        <v>500</v>
+        <v>102</v>
       </c>
       <c r="D29" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="10">
         <v>350</v>
       </c>
       <c r="F29" s="10">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G29" s="10">
         <v>100</v>
       </c>
       <c r="H29" s="8">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="I29" t="str">
+        <f>VLOOKUP(H29,departamento!A:E,5,FALSE)</f>
+        <v>templado</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(28,Yocute,500,4,350,500,100,9).</v>
+        <v>hotel(7,Atanacio,102,5,350,700,100,12).</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(28,yocute,500,4,350,500,100,9).</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>hotel(7,atanacio,102,5,350,700,100,12).</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C30" s="9">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="D30" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" s="10">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="F30" s="10">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G30" s="10">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H30" s="8">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I30" t="str">
+        <f>VLOOKUP(H30,departamento!A:E,5,FALSE)</f>
+        <v>templado</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(29,Renuevate,90,3,280,600,65,20).</v>
+        <v>hotel(18,Ovni 2,270,5,250,400,95,21).</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(29,renuevate,90,3,280,600,65,20).</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>hotel(18,ovni 2,270,5,250,400,95,21).</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -3719,6 +3829,10 @@
       <c r="H31" s="8">
         <v>14</v>
       </c>
+      <c r="I31" t="str">
+        <f>VLOOKUP(H31,departamento!A:E,5,FALSE)</f>
+        <v>templado</v>
+      </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
         <v>hotel(30,Las Islas,241,2,340,600,80,14).</v>
@@ -3730,40 +3844,53 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C32" s="9">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="D32" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32" s="10">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F32" s="10">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="G32" s="10">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="H32" s="8">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="I32" t="str">
+        <f>VLOOKUP(H32,departamento!A:E,5,FALSE)</f>
+        <v>calor</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>hotel(31,Usac,0,3,100,50,7,4).</v>
+        <v>hotel(23,Prank,269,5,400,700,150,13).</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
-        <v>hotel(31,usac,0,3,100,50,7,4).</v>
+        <v>hotel(23,prank,269,5,400,700,150,13).</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H32" xr:uid="{93C1596B-6668-4831-896B-B22AD06D81DC}"/>
+  <autoFilter ref="A1:I32" xr:uid="{93C1596B-6668-4831-896B-B22AD06D81DC}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="calor"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I32">
+      <sortCondition ref="D1:D32"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3773,7 +3900,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F3" sqref="F3:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5015,7 +5142,7 @@
   <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G302"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Proyecto 1/Base de conocimiento.xlsx
+++ b/Proyecto 1/Base de conocimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jp_gm\Escritorio\PRIMER SEMESTRE 2022\IA\IA\Laboratorio_IA\Proyecto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FAF3F0-9296-48AC-BA10-871528768258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92578722-98DA-4E86-AF11-733003180B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{EB006548-C89C-4332-8526-5EB2DF5351D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{EB006548-C89C-4332-8526-5EB2DF5351D6}"/>
   </bookViews>
   <sheets>
     <sheet name="cliente" sheetId="1" r:id="rId1"/>
@@ -2665,7 +2665,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5141,13 +5141,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C9737D-73CF-42E1-895C-FD26865DF8C0}">
   <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
